--- a/Code/Results/Cases/Case_0_131/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_131/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.156658733963926</v>
+        <v>12.78096850132919</v>
       </c>
       <c r="D2">
-        <v>4.714308529359635</v>
+        <v>8.567211726214827</v>
       </c>
       <c r="E2">
-        <v>6.97730077850708</v>
+        <v>13.37925413994992</v>
       </c>
       <c r="F2">
-        <v>27.00759576175572</v>
+        <v>35.49796562664235</v>
       </c>
       <c r="G2">
-        <v>36.56120954913524</v>
+        <v>39.87842566722569</v>
       </c>
       <c r="H2">
-        <v>11.01619836641597</v>
+        <v>16.74819572065282</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.364576590350567</v>
+        <v>10.18790123844742</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>5.285152806536263</v>
+        <v>9.379824911065869</v>
       </c>
       <c r="M2">
-        <v>28.84181839673252</v>
+        <v>25.20222021013713</v>
       </c>
       <c r="N2">
-        <v>19.66831677074557</v>
+        <v>17.60445428078719</v>
       </c>
       <c r="O2">
-        <v>20.26748287141649</v>
+        <v>27.06915098515913</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>8.012159923360709</v>
+        <v>12.80776577770738</v>
       </c>
       <c r="D3">
-        <v>4.74997268589377</v>
+        <v>8.591611068104703</v>
       </c>
       <c r="E3">
-        <v>7.118195546633585</v>
+        <v>13.43751292802409</v>
       </c>
       <c r="F3">
-        <v>25.99492884927063</v>
+        <v>35.44780097638129</v>
       </c>
       <c r="G3">
-        <v>34.68182422436778</v>
+        <v>39.62326520053956</v>
       </c>
       <c r="H3">
-        <v>10.77047004876313</v>
+        <v>16.76234810793886</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.464826514150768</v>
+        <v>10.22417599341521</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>5.337069328904325</v>
+        <v>9.399967631910847</v>
       </c>
       <c r="M3">
-        <v>27.10028000390677</v>
+        <v>24.5889098833892</v>
       </c>
       <c r="N3">
-        <v>18.83471297720999</v>
+        <v>17.32554009187516</v>
       </c>
       <c r="O3">
-        <v>19.53604523527261</v>
+        <v>27.03533672270149</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.930085499008389</v>
+        <v>12.82711724026596</v>
       </c>
       <c r="D4">
-        <v>4.774036237113784</v>
+        <v>8.607583242300826</v>
       </c>
       <c r="E4">
-        <v>7.208421202484072</v>
+        <v>13.47518103596884</v>
       </c>
       <c r="F4">
-        <v>25.37874870180967</v>
+        <v>35.42632185143687</v>
       </c>
       <c r="G4">
-        <v>33.51119693971103</v>
+        <v>39.47850878320243</v>
       </c>
       <c r="H4">
-        <v>10.62567272598429</v>
+        <v>16.77442716687887</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.528127648998515</v>
+        <v>10.24754616311255</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>5.369936042332231</v>
+        <v>9.412970364607618</v>
       </c>
       <c r="M4">
-        <v>25.97131297538526</v>
+        <v>24.20456403080352</v>
       </c>
       <c r="N4">
-        <v>18.30649564357294</v>
+        <v>17.15397310621729</v>
       </c>
       <c r="O4">
-        <v>19.09155987009513</v>
+        <v>27.02133908307387</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7.89829707960058</v>
+        <v>12.83572980011269</v>
       </c>
       <c r="D5">
-        <v>4.78437215188853</v>
+        <v>8.614341476803936</v>
       </c>
       <c r="E5">
-        <v>7.246105788442336</v>
+        <v>13.49100891864269</v>
       </c>
       <c r="F5">
-        <v>25.12937976615645</v>
+        <v>35.41991745426282</v>
       </c>
       <c r="G5">
-        <v>33.03058253425397</v>
+        <v>39.42256737530149</v>
       </c>
       <c r="H5">
-        <v>10.56822292975074</v>
+        <v>16.78020097161333</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.554368762612159</v>
+        <v>10.25734634046113</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5.383582427168932</v>
+        <v>9.41842921351752</v>
       </c>
       <c r="M5">
-        <v>25.49641046799372</v>
+        <v>24.0461784225695</v>
       </c>
       <c r="N5">
-        <v>18.08740366115303</v>
+        <v>17.08406341102513</v>
       </c>
       <c r="O5">
-        <v>18.91181274810978</v>
+        <v>27.01733889876572</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7.893118222220521</v>
+        <v>12.83720373718737</v>
       </c>
       <c r="D6">
-        <v>4.78612000714947</v>
+        <v>8.615478750575233</v>
       </c>
       <c r="E6">
-        <v>7.252418201572961</v>
+        <v>13.4936660099304</v>
       </c>
       <c r="F6">
-        <v>25.08808651186174</v>
+        <v>35.41899594033056</v>
       </c>
       <c r="G6">
-        <v>32.95058117499684</v>
+        <v>39.41346385480075</v>
       </c>
       <c r="H6">
-        <v>10.5587781596515</v>
+        <v>16.78121110585948</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.558753155434241</v>
+        <v>10.2589903820007</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.385863790487075</v>
+        <v>9.419345335855425</v>
       </c>
       <c r="M6">
-        <v>25.41666272762729</v>
+        <v>24.01977805729469</v>
       </c>
       <c r="N6">
-        <v>18.05080067783613</v>
+        <v>17.07245774944215</v>
       </c>
       <c r="O6">
-        <v>18.88205625679874</v>
+        <v>27.01677764600116</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.929650100773474</v>
+        <v>12.82723045272002</v>
       </c>
       <c r="D7">
-        <v>4.774173504517783</v>
+        <v>8.607673375849325</v>
       </c>
       <c r="E7">
-        <v>7.208925738680364</v>
+        <v>13.47539256056479</v>
       </c>
       <c r="F7">
-        <v>25.37537818176684</v>
+        <v>35.4262259662909</v>
       </c>
       <c r="G7">
-        <v>33.50472878148747</v>
+        <v>39.47774193179418</v>
       </c>
       <c r="H7">
-        <v>10.62489160302863</v>
+        <v>16.77450158811067</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.528479734514753</v>
+        <v>10.24767721067425</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>5.370119052903026</v>
+        <v>9.413043335603614</v>
       </c>
       <c r="M7">
-        <v>25.96496810793267</v>
+        <v>24.20243485730677</v>
       </c>
       <c r="N7">
-        <v>18.30355603842037</v>
+        <v>17.15303014674073</v>
       </c>
       <c r="O7">
-        <v>19.08912982812032</v>
+        <v>27.02127823306567</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>8.105448770196787</v>
+        <v>12.78960560360476</v>
       </c>
       <c r="D8">
-        <v>4.726146935541043</v>
+        <v>8.57541913015455</v>
       </c>
       <c r="E8">
-        <v>7.025098797912574</v>
+        <v>13.39894854272207</v>
       </c>
       <c r="F8">
-        <v>26.65745042895167</v>
+        <v>35.47873729564022</v>
       </c>
       <c r="G8">
-        <v>35.91699738510673</v>
+        <v>39.78800692998449</v>
       </c>
       <c r="H8">
-        <v>10.93022629723033</v>
+        <v>16.75237158253144</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.398783758410688</v>
+        <v>10.20018145534939</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>5.302850700463633</v>
+        <v>9.38663859373853</v>
       </c>
       <c r="M8">
-        <v>28.25379957430304</v>
+        <v>24.9924757113226</v>
       </c>
       <c r="N8">
-        <v>19.384446320176</v>
+        <v>17.50839942411793</v>
       </c>
       <c r="O8">
-        <v>20.01445269253638</v>
+        <v>27.05609007911984</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.503333920782877</v>
+        <v>12.73889943840674</v>
       </c>
       <c r="D9">
-        <v>4.649854815181411</v>
+        <v>8.520018174125672</v>
       </c>
       <c r="E9">
-        <v>6.6950271386025</v>
+        <v>13.26405602631551</v>
       </c>
       <c r="F9">
-        <v>29.20342136068372</v>
+        <v>35.6553945270191</v>
       </c>
       <c r="G9">
-        <v>40.49340947583895</v>
+        <v>40.48838828332968</v>
       </c>
       <c r="H9">
-        <v>11.57596692282003</v>
+        <v>16.73589399196969</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.15803904732621</v>
+        <v>10.11571612684069</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>5.178596170664608</v>
+        <v>9.339876907898237</v>
       </c>
       <c r="M9">
-        <v>32.26404005982505</v>
+        <v>26.47220084127454</v>
       </c>
       <c r="N9">
-        <v>21.36368346534838</v>
+        <v>18.19919129865553</v>
       </c>
       <c r="O9">
-        <v>21.85687297354859</v>
+        <v>27.17783668396317</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.82834825757423</v>
+        <v>12.71581743220674</v>
       </c>
       <c r="D10">
-        <v>4.605748525036518</v>
+        <v>8.484082756965016</v>
       </c>
       <c r="E10">
-        <v>6.472618296817574</v>
+        <v>13.17404985289227</v>
       </c>
       <c r="F10">
-        <v>31.07906961883842</v>
+        <v>35.82958846153839</v>
       </c>
       <c r="G10">
-        <v>43.74017322971047</v>
+        <v>41.05520802233175</v>
       </c>
       <c r="H10">
-        <v>12.077395675689</v>
+        <v>16.74021789712021</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.989067594708142</v>
+        <v>10.05890010955943</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>5.091685818332402</v>
+        <v>9.308550946240665</v>
       </c>
       <c r="M10">
-        <v>34.91501305600442</v>
+        <v>27.50723448302654</v>
       </c>
       <c r="N10">
-        <v>22.72072759234196</v>
+        <v>18.69832008517655</v>
       </c>
       <c r="O10">
-        <v>23.2174763480317</v>
+        <v>27.29954090218512</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.983317473408588</v>
+        <v>12.708412496028</v>
       </c>
       <c r="D11">
-        <v>4.588525537615554</v>
+        <v>8.468766409897341</v>
       </c>
       <c r="E11">
-        <v>6.376239850271724</v>
+        <v>13.13506836793117</v>
       </c>
       <c r="F11">
-        <v>31.93126514577256</v>
+        <v>35.918321194141</v>
       </c>
       <c r="G11">
-        <v>45.18952692288749</v>
+        <v>41.32350847522618</v>
       </c>
       <c r="H11">
-        <v>12.31107785104303</v>
+        <v>16.74575013197978</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.913835973381519</v>
+        <v>10.0341809659551</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5.053030746481399</v>
+        <v>9.294951625992832</v>
       </c>
       <c r="M11">
-        <v>36.05664207802253</v>
+        <v>27.96496492250514</v>
       </c>
       <c r="N11">
-        <v>23.3151762378211</v>
+        <v>18.92262260590642</v>
       </c>
       <c r="O11">
-        <v>23.83641472981496</v>
+        <v>27.36180763097835</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.04302342888322</v>
+        <v>12.70605466758258</v>
       </c>
       <c r="D12">
-        <v>4.582434575994864</v>
+        <v>8.463114489080574</v>
       </c>
       <c r="E12">
-        <v>6.340478863628292</v>
+        <v>13.12058856654357</v>
       </c>
       <c r="F12">
-        <v>32.25369315336711</v>
+        <v>35.95327023724846</v>
       </c>
       <c r="G12">
-        <v>45.73428687791031</v>
+        <v>41.42652804679154</v>
       </c>
       <c r="H12">
-        <v>12.40035080882807</v>
+        <v>16.74835687964431</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.885577036693726</v>
+        <v>10.0249817593088</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5.038513803471275</v>
+        <v>9.289895067015674</v>
       </c>
       <c r="M12">
-        <v>36.49078054772156</v>
+        <v>28.13627482650153</v>
       </c>
       <c r="N12">
-        <v>23.53687134452874</v>
+        <v>19.00708982982884</v>
       </c>
       <c r="O12">
-        <v>24.07070055063155</v>
+        <v>27.38636786328725</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.030119213310851</v>
+        <v>12.70654260420564</v>
       </c>
       <c r="D13">
-        <v>4.583726830524247</v>
+        <v>8.464325149840315</v>
       </c>
       <c r="E13">
-        <v>6.348147112026966</v>
+        <v>13.12369453418365</v>
       </c>
       <c r="F13">
-        <v>32.18426653425885</v>
+        <v>35.94568367939696</v>
       </c>
       <c r="G13">
-        <v>45.61714532158731</v>
+        <v>41.40427913463125</v>
       </c>
       <c r="H13">
-        <v>12.38108971346678</v>
+        <v>16.74777272459625</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.891652970967566</v>
+        <v>10.02695580482976</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5.041635006273359</v>
+        <v>9.290979948439846</v>
       </c>
       <c r="M13">
-        <v>36.39512228771735</v>
+        <v>28.09947219282765</v>
       </c>
       <c r="N13">
-        <v>23.48927865165928</v>
+        <v>18.98892042302869</v>
       </c>
       <c r="O13">
-        <v>24.02024814162984</v>
+        <v>27.38103493720948</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.988209028751978</v>
+        <v>12.70820956639012</v>
       </c>
       <c r="D14">
-        <v>4.588015658444321</v>
+        <v>8.46829845693585</v>
       </c>
       <c r="E14">
-        <v>6.373282743649392</v>
+        <v>13.13387146483732</v>
       </c>
       <c r="F14">
-        <v>31.95779768036272</v>
+        <v>35.92116956363304</v>
       </c>
       <c r="G14">
-        <v>45.23442672226242</v>
+        <v>41.33195598358319</v>
       </c>
       <c r="H14">
-        <v>12.31840679500265</v>
+        <v>16.74595433947927</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.911506520219064</v>
+        <v>10.03342091063588</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.051834040427641</v>
+        <v>9.294533754126833</v>
       </c>
       <c r="M14">
-        <v>36.09163302841607</v>
+        <v>27.97909997314784</v>
       </c>
       <c r="N14">
-        <v>23.3334841688917</v>
+        <v>18.92958163897295</v>
       </c>
       <c r="O14">
-        <v>23.85569183222571</v>
+        <v>27.36380862251241</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.962670971970493</v>
+        <v>12.70928877626073</v>
       </c>
       <c r="D15">
-        <v>4.59069951179323</v>
+        <v>8.470751496919217</v>
       </c>
       <c r="E15">
-        <v>6.38877630792561</v>
+        <v>13.14014178911643</v>
       </c>
       <c r="F15">
-        <v>31.81903945357828</v>
+        <v>35.90632895656087</v>
       </c>
       <c r="G15">
-        <v>44.99946755623871</v>
+        <v>41.28783838154828</v>
       </c>
       <c r="H15">
-        <v>12.2801131458224</v>
+        <v>16.74490714704722</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.923697147981617</v>
+        <v>10.03740197468259</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.05809680922522</v>
+        <v>9.296722689190496</v>
       </c>
       <c r="M15">
-        <v>35.90828183143672</v>
+        <v>27.90510122851232</v>
       </c>
       <c r="N15">
-        <v>23.23760833856553</v>
+        <v>18.89317137229921</v>
       </c>
       <c r="O15">
-        <v>23.75488210364496</v>
+        <v>27.35338442108755</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.818363777702162</v>
+        <v>12.71636375080429</v>
       </c>
       <c r="D16">
-        <v>4.606933144630974</v>
+        <v>8.485104443467806</v>
       </c>
       <c r="E16">
-        <v>6.479017107960527</v>
+        <v>13.17663682858402</v>
       </c>
       <c r="F16">
-        <v>31.02334346886339</v>
+        <v>35.8239791542677</v>
       </c>
       <c r="G16">
-        <v>43.64488775545014</v>
+        <v>41.03787725083129</v>
       </c>
       <c r="H16">
-        <v>12.0622344309759</v>
+        <v>16.73992802846767</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.994016575546804</v>
+        <v>10.06053818289589</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>5.094229258786353</v>
+        <v>9.309452759063683</v>
       </c>
       <c r="M16">
-        <v>34.83911051255974</v>
+        <v>27.47704488073961</v>
       </c>
       <c r="N16">
-        <v>22.68140783826653</v>
+        <v>18.68359946037656</v>
       </c>
       <c r="O16">
-        <v>23.17701854791892</v>
+        <v>27.29560958204465</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.731658151373903</v>
+        <v>12.72149767602038</v>
       </c>
       <c r="D17">
-        <v>4.617635151488924</v>
+        <v>8.494173402010782</v>
       </c>
       <c r="E17">
-        <v>6.535635588049166</v>
+        <v>13.19952763091952</v>
       </c>
       <c r="F17">
-        <v>30.53483518133993</v>
+        <v>35.7758797289674</v>
       </c>
       <c r="G17">
-        <v>42.80672077776578</v>
+        <v>40.88715307282288</v>
       </c>
       <c r="H17">
-        <v>11.92998586156291</v>
+        <v>16.73778614335898</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.037569898585296</v>
+        <v>10.07501963505267</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>5.116616971558365</v>
+        <v>9.31742869507878</v>
       </c>
       <c r="M17">
-        <v>34.16673192526228</v>
+        <v>27.21098656064389</v>
       </c>
       <c r="N17">
-        <v>22.33424456691803</v>
+        <v>18.55427392101352</v>
       </c>
       <c r="O17">
-        <v>22.82244069067603</v>
+        <v>27.26192688621381</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.682457469717486</v>
+        <v>12.72474185078616</v>
       </c>
       <c r="D18">
-        <v>4.624056656297291</v>
+        <v>8.499486666878665</v>
       </c>
       <c r="E18">
-        <v>6.568649343378011</v>
+        <v>13.21287859540882</v>
       </c>
       <c r="F18">
-        <v>30.25376456027161</v>
+        <v>35.74910869995094</v>
       </c>
       <c r="G18">
-        <v>42.32203102357164</v>
+        <v>40.80144941702569</v>
       </c>
       <c r="H18">
-        <v>11.85444599523184</v>
+        <v>16.73688984188563</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.062774748092878</v>
+        <v>10.08345507522824</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>5.129577072590493</v>
+        <v>9.322077543415928</v>
       </c>
       <c r="M18">
-        <v>33.7739428296297</v>
+        <v>27.05673017124096</v>
       </c>
       <c r="N18">
-        <v>22.13241769028052</v>
+        <v>18.47963439202577</v>
       </c>
       <c r="O18">
-        <v>22.61849971818874</v>
+        <v>27.24320399794593</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.665914104007694</v>
+        <v>12.72589026024938</v>
       </c>
       <c r="D19">
-        <v>4.626275892427564</v>
+        <v>8.501302319575952</v>
       </c>
       <c r="E19">
-        <v>6.579902958868547</v>
+        <v>13.21743075754263</v>
       </c>
       <c r="F19">
-        <v>30.1585874993848</v>
+        <v>35.74019860002127</v>
       </c>
       <c r="G19">
-        <v>42.15748179094687</v>
+        <v>40.77260395062978</v>
       </c>
       <c r="H19">
-        <v>11.82896054825927</v>
+        <v>16.73664403935921</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.071335320035267</v>
+        <v>10.08632941099161</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>5.133979613454353</v>
+        <v>9.323662104531452</v>
       </c>
       <c r="M19">
-        <v>33.63991154297459</v>
+        <v>27.0042953014449</v>
       </c>
       <c r="N19">
-        <v>22.06371773754062</v>
+        <v>18.45432130233248</v>
       </c>
       <c r="O19">
-        <v>22.54945262072703</v>
+        <v>27.23697680058892</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.74081877198917</v>
+        <v>12.72092100564586</v>
       </c>
       <c r="D20">
-        <v>4.61646821742669</v>
+        <v>8.493197954023399</v>
       </c>
       <c r="E20">
-        <v>6.529561749420089</v>
+        <v>13.19707174628073</v>
       </c>
       <c r="F20">
-        <v>30.58684849081887</v>
+        <v>35.78090753458586</v>
       </c>
       <c r="G20">
-        <v>42.89621503889229</v>
+        <v>40.90309616134706</v>
       </c>
       <c r="H20">
-        <v>11.94400967199889</v>
+        <v>16.73797941688978</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.032917661513035</v>
+        <v>10.07346708419811</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>5.114225182693086</v>
+        <v>9.316573301613353</v>
       </c>
       <c r="M20">
-        <v>34.2389344600697</v>
+        <v>27.23943691159885</v>
       </c>
       <c r="N20">
-        <v>22.37142391534418</v>
+        <v>18.56806778315498</v>
       </c>
       <c r="O20">
-        <v>22.86018658355258</v>
+        <v>27.26544521997883</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.000491319496659</v>
+        <v>12.70770781953511</v>
       </c>
       <c r="D21">
-        <v>4.586744041763311</v>
+        <v>8.467127383833557</v>
       </c>
       <c r="E21">
-        <v>6.36587943695021</v>
+        <v>13.13087461466509</v>
       </c>
       <c r="F21">
-        <v>32.02432547350606</v>
+        <v>35.9283335175922</v>
       </c>
       <c r="G21">
-        <v>45.34695160046076</v>
+        <v>41.35316118279938</v>
       </c>
       <c r="H21">
-        <v>12.33679717107182</v>
+        <v>16.74647456156463</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.905668859385215</v>
+        <v>10.03151757706037</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>5.048835103819791</v>
+        <v>9.293487388827932</v>
       </c>
       <c r="M21">
-        <v>36.17922850182143</v>
+        <v>28.01451214220273</v>
       </c>
       <c r="N21">
-        <v>23.37933816579712</v>
+        <v>18.94702425097901</v>
       </c>
       <c r="O21">
-        <v>23.90402909383999</v>
+        <v>27.36884187820995</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.176162748726178</v>
+        <v>12.70167377301273</v>
       </c>
       <c r="D22">
-        <v>4.569841353691445</v>
+        <v>8.450951609659493</v>
       </c>
       <c r="E22">
-        <v>6.263217275711106</v>
+        <v>13.0892523160745</v>
       </c>
       <c r="F22">
-        <v>32.96214090151076</v>
+        <v>36.03253211943976</v>
       </c>
       <c r="G22">
-        <v>46.92488262279088</v>
+        <v>41.65554117716869</v>
       </c>
       <c r="H22">
-        <v>12.59806420259096</v>
+        <v>16.75500919919954</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.823840859478244</v>
+        <v>10.00504160516801</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>5.006800601171223</v>
+        <v>9.278942513849051</v>
       </c>
       <c r="M22">
-        <v>37.45374840809735</v>
+        <v>28.50922346367613</v>
       </c>
       <c r="N22">
-        <v>24.01815404910463</v>
+        <v>19.1919148809861</v>
       </c>
       <c r="O22">
-        <v>24.58568105302331</v>
+        <v>27.44213030097741</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.081858226094404</v>
+        <v>12.70465588529902</v>
       </c>
       <c r="D23">
-        <v>4.578623892329909</v>
+        <v>8.459506034501061</v>
       </c>
       <c r="E23">
-        <v>6.317598123835598</v>
+        <v>13.11131693029172</v>
       </c>
       <c r="F23">
-        <v>32.46179373116867</v>
+        <v>35.9762074660286</v>
       </c>
       <c r="G23">
-        <v>46.08490024671865</v>
+        <v>41.49342977150006</v>
       </c>
       <c r="H23">
-        <v>12.45820867425263</v>
+        <v>16.75018157606611</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.867393355187493</v>
+        <v>10.01908648367447</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>5.029173013287924</v>
+        <v>9.286655827010502</v>
       </c>
       <c r="M23">
-        <v>36.77610109692214</v>
+        <v>28.24631286634881</v>
       </c>
       <c r="N23">
-        <v>23.6790619893699</v>
+        <v>19.06149040431164</v>
       </c>
       <c r="O23">
-        <v>24.22194352106802</v>
+        <v>27.40249632164651</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.736675238354859</v>
+        <v>12.72118080695631</v>
       </c>
       <c r="D24">
-        <v>4.616994952811172</v>
+        <v>8.493638644427044</v>
       </c>
       <c r="E24">
-        <v>6.532306292964002</v>
+        <v>13.19818145753023</v>
       </c>
       <c r="F24">
-        <v>30.56333395063628</v>
+        <v>35.77863171502661</v>
       </c>
       <c r="G24">
-        <v>42.85576344672597</v>
+        <v>40.89588532646371</v>
       </c>
       <c r="H24">
-        <v>11.93766797448275</v>
+        <v>16.73789099399726</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.035020422096654</v>
+        <v>10.0741686501676</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>5.115306232459512</v>
+        <v>9.316959827544686</v>
       </c>
       <c r="M24">
-        <v>34.2063110980983</v>
+        <v>27.22657853382017</v>
       </c>
       <c r="N24">
-        <v>22.35462209372013</v>
+        <v>18.56183247108967</v>
       </c>
       <c r="O24">
-        <v>22.84312193659791</v>
+        <v>27.2638525813622</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.38996347717857</v>
+        <v>12.75013484831817</v>
       </c>
       <c r="D25">
-        <v>4.668475685830491</v>
+        <v>8.534167098857372</v>
       </c>
       <c r="E25">
-        <v>6.780920690980303</v>
+        <v>13.29894628550205</v>
       </c>
       <c r="F25">
-        <v>28.51287971609725</v>
+        <v>35.59976038902224</v>
       </c>
       <c r="G25">
-        <v>39.27446797170615</v>
+        <v>40.28944648992082</v>
       </c>
       <c r="H25">
-        <v>11.39642123459514</v>
+        <v>16.7374664331337</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.221751821700959</v>
+        <v>10.13764254632204</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>5.211419302280576</v>
+        <v>9.351993010428934</v>
       </c>
       <c r="M25">
-        <v>31.23086946259857</v>
+        <v>26.0803920586682</v>
       </c>
       <c r="N25">
-        <v>20.84458859122386</v>
+        <v>18.01345874597482</v>
       </c>
       <c r="O25">
-        <v>21.35659809789961</v>
+        <v>27.13920544786342</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_131/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_131/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>12.78096850132919</v>
+        <v>8.156658733963834</v>
       </c>
       <c r="D2">
-        <v>8.567211726214827</v>
+        <v>4.714308529359641</v>
       </c>
       <c r="E2">
-        <v>13.37925413994992</v>
+        <v>6.977300778507016</v>
       </c>
       <c r="F2">
-        <v>35.49796562664235</v>
+        <v>27.00759576175578</v>
       </c>
       <c r="G2">
-        <v>39.87842566722569</v>
+        <v>36.56120954913526</v>
       </c>
       <c r="H2">
-        <v>16.74819572065282</v>
+        <v>11.01619836641604</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.18790123844742</v>
+        <v>5.364576590350601</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.379824911065869</v>
+        <v>5.285152806536294</v>
       </c>
       <c r="M2">
-        <v>25.20222021013713</v>
+        <v>28.84181839673252</v>
       </c>
       <c r="N2">
-        <v>17.60445428078719</v>
+        <v>19.66831677074559</v>
       </c>
       <c r="O2">
-        <v>27.06915098515913</v>
+        <v>20.26748287141654</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>12.80776577770738</v>
+        <v>8.012159923360603</v>
       </c>
       <c r="D3">
-        <v>8.591611068104703</v>
+        <v>4.749972685893758</v>
       </c>
       <c r="E3">
-        <v>13.43751292802409</v>
+        <v>7.118195546633585</v>
       </c>
       <c r="F3">
-        <v>35.44780097638129</v>
+        <v>25.99492884927061</v>
       </c>
       <c r="G3">
-        <v>39.62326520053956</v>
+        <v>34.68182422436777</v>
       </c>
       <c r="H3">
-        <v>16.76234810793886</v>
+        <v>10.7704700487632</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.22417599341521</v>
+        <v>5.464826514150738</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.399967631910847</v>
+        <v>5.337069328904357</v>
       </c>
       <c r="M3">
-        <v>24.5889098833892</v>
+        <v>27.10028000390675</v>
       </c>
       <c r="N3">
-        <v>17.32554009187516</v>
+        <v>18.83471297720999</v>
       </c>
       <c r="O3">
-        <v>27.03533672270149</v>
+        <v>19.53604523527261</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>12.82711724026596</v>
+        <v>7.930085499008401</v>
       </c>
       <c r="D4">
-        <v>8.607583242300826</v>
+        <v>4.774036237113966</v>
       </c>
       <c r="E4">
-        <v>13.47518103596884</v>
+        <v>7.208421202484269</v>
       </c>
       <c r="F4">
-        <v>35.42632185143687</v>
+        <v>25.37874870180982</v>
       </c>
       <c r="G4">
-        <v>39.47850878320243</v>
+        <v>33.51119693971113</v>
       </c>
       <c r="H4">
-        <v>16.77442716687887</v>
+        <v>10.62567272598434</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.24754616311255</v>
+        <v>5.528127648998484</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.412970364607618</v>
+        <v>5.369936042332332</v>
       </c>
       <c r="M4">
-        <v>24.20456403080352</v>
+        <v>25.97131297538531</v>
       </c>
       <c r="N4">
-        <v>17.15397310621729</v>
+        <v>18.30649564357293</v>
       </c>
       <c r="O4">
-        <v>27.02133908307387</v>
+        <v>19.09155987009521</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>12.83572980011269</v>
+        <v>7.898297079600408</v>
       </c>
       <c r="D5">
-        <v>8.614341476803936</v>
+        <v>4.784372151888524</v>
       </c>
       <c r="E5">
-        <v>13.49100891864269</v>
+        <v>7.246105788442075</v>
       </c>
       <c r="F5">
-        <v>35.41991745426282</v>
+        <v>25.12937976615642</v>
       </c>
       <c r="G5">
-        <v>39.42256737530149</v>
+        <v>33.03058253425394</v>
       </c>
       <c r="H5">
-        <v>16.78020097161333</v>
+        <v>10.56822292975074</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.25734634046113</v>
+        <v>5.554368762611992</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.41842921351752</v>
+        <v>5.383582427168903</v>
       </c>
       <c r="M5">
-        <v>24.0461784225695</v>
+        <v>25.4964104679937</v>
       </c>
       <c r="N5">
-        <v>17.08406341102513</v>
+        <v>18.08740366115304</v>
       </c>
       <c r="O5">
-        <v>27.01733889876572</v>
+        <v>18.91181274810977</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>12.83720373718737</v>
+        <v>7.893118222220242</v>
       </c>
       <c r="D6">
-        <v>8.615478750575233</v>
+        <v>4.786120007149342</v>
       </c>
       <c r="E6">
-        <v>13.4936660099304</v>
+        <v>7.252418201572898</v>
       </c>
       <c r="F6">
-        <v>35.41899594033056</v>
+        <v>25.08808651186166</v>
       </c>
       <c r="G6">
-        <v>39.41346385480075</v>
+        <v>32.95058117499687</v>
       </c>
       <c r="H6">
-        <v>16.78121110585948</v>
+        <v>10.55877815965145</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.2589903820007</v>
+        <v>5.558753155434242</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.419345335855425</v>
+        <v>5.385863790487043</v>
       </c>
       <c r="M6">
-        <v>24.01977805729469</v>
+        <v>25.4166627276273</v>
       </c>
       <c r="N6">
-        <v>17.07245774944215</v>
+        <v>18.05080067783612</v>
       </c>
       <c r="O6">
-        <v>27.01677764600116</v>
+        <v>18.8820562567987</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>12.82723045272002</v>
+        <v>7.92965010077357</v>
       </c>
       <c r="D7">
-        <v>8.607673375849325</v>
+        <v>4.77417350451784</v>
       </c>
       <c r="E7">
-        <v>13.47539256056479</v>
+        <v>7.208925738680231</v>
       </c>
       <c r="F7">
-        <v>35.4262259662909</v>
+        <v>25.37537818176687</v>
       </c>
       <c r="G7">
-        <v>39.47774193179418</v>
+        <v>33.50472878148751</v>
       </c>
       <c r="H7">
-        <v>16.77450158811067</v>
+        <v>10.62489160302869</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.24767721067425</v>
+        <v>5.528479734514654</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.413043335603614</v>
+        <v>5.370119052902892</v>
       </c>
       <c r="M7">
-        <v>24.20243485730677</v>
+        <v>25.96496810793266</v>
       </c>
       <c r="N7">
-        <v>17.15303014674073</v>
+        <v>18.30355603842036</v>
       </c>
       <c r="O7">
-        <v>27.02127823306567</v>
+        <v>19.08912982812033</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>12.78960560360476</v>
+        <v>8.105448770197004</v>
       </c>
       <c r="D8">
-        <v>8.57541913015455</v>
+        <v>4.726146935541047</v>
       </c>
       <c r="E8">
-        <v>13.39894854272207</v>
+        <v>7.025098797912702</v>
       </c>
       <c r="F8">
-        <v>35.47873729564022</v>
+        <v>26.65745042895164</v>
       </c>
       <c r="G8">
-        <v>39.78800692998449</v>
+        <v>35.91699738510675</v>
       </c>
       <c r="H8">
-        <v>16.75237158253144</v>
+        <v>10.93022629723032</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.20018145534939</v>
+        <v>5.398783758410821</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.38663859373853</v>
+        <v>5.302850700463633</v>
       </c>
       <c r="M8">
-        <v>24.9924757113226</v>
+        <v>28.25379957430305</v>
       </c>
       <c r="N8">
-        <v>17.50839942411793</v>
+        <v>19.384446320176</v>
       </c>
       <c r="O8">
-        <v>27.05609007911984</v>
+        <v>20.01445269253637</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>12.73889943840674</v>
+        <v>8.503333920782813</v>
       </c>
       <c r="D9">
-        <v>8.520018174125672</v>
+        <v>4.649854815181411</v>
       </c>
       <c r="E9">
-        <v>13.26405602631551</v>
+        <v>6.695027138602367</v>
       </c>
       <c r="F9">
-        <v>35.6553945270191</v>
+        <v>29.20342136068374</v>
       </c>
       <c r="G9">
-        <v>40.48838828332968</v>
+        <v>40.493409475839</v>
       </c>
       <c r="H9">
-        <v>16.73589399196969</v>
+        <v>11.57596692282004</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.11571612684069</v>
+        <v>5.158039047326075</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.339876907898237</v>
+        <v>5.178596170664575</v>
       </c>
       <c r="M9">
-        <v>26.47220084127454</v>
+        <v>32.26404005982504</v>
       </c>
       <c r="N9">
-        <v>18.19919129865553</v>
+        <v>21.36368346534838</v>
       </c>
       <c r="O9">
-        <v>27.17783668396317</v>
+        <v>21.85687297354861</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>12.71581743220674</v>
+        <v>8.828348257574284</v>
       </c>
       <c r="D10">
-        <v>8.484082756965016</v>
+        <v>4.605748525036411</v>
       </c>
       <c r="E10">
-        <v>13.17404985289227</v>
+        <v>6.47261829681758</v>
       </c>
       <c r="F10">
-        <v>35.82958846153839</v>
+        <v>31.07906961883837</v>
       </c>
       <c r="G10">
-        <v>41.05520802233175</v>
+        <v>43.7401732297105</v>
       </c>
       <c r="H10">
-        <v>16.74021789712021</v>
+        <v>12.077395675689</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.05890010955943</v>
+        <v>4.989067594708242</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.308550946240665</v>
+        <v>5.091685818332372</v>
       </c>
       <c r="M10">
-        <v>27.50723448302654</v>
+        <v>34.91501305600445</v>
       </c>
       <c r="N10">
-        <v>18.69832008517655</v>
+        <v>22.72072759234196</v>
       </c>
       <c r="O10">
-        <v>27.29954090218512</v>
+        <v>23.21747634803168</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>12.708412496028</v>
+        <v>8.983317473408603</v>
       </c>
       <c r="D11">
-        <v>8.468766409897341</v>
+        <v>4.588525537615504</v>
       </c>
       <c r="E11">
-        <v>13.13506836793117</v>
+        <v>6.376239850271729</v>
       </c>
       <c r="F11">
-        <v>35.918321194141</v>
+        <v>31.93126514577254</v>
       </c>
       <c r="G11">
-        <v>41.32350847522618</v>
+        <v>45.1895269228875</v>
       </c>
       <c r="H11">
-        <v>16.74575013197978</v>
+        <v>12.31107785104303</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.0341809659551</v>
+        <v>4.913835973381583</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.294951625992832</v>
+        <v>5.053030746481365</v>
       </c>
       <c r="M11">
-        <v>27.96496492250514</v>
+        <v>36.05664207802254</v>
       </c>
       <c r="N11">
-        <v>18.92262260590642</v>
+        <v>23.31517623782114</v>
       </c>
       <c r="O11">
-        <v>27.36180763097835</v>
+        <v>23.83641472981495</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>12.70605466758258</v>
+        <v>9.043023428883222</v>
       </c>
       <c r="D12">
-        <v>8.463114489080574</v>
+        <v>4.582434575994694</v>
       </c>
       <c r="E12">
-        <v>13.12058856654357</v>
+        <v>6.340478863628357</v>
       </c>
       <c r="F12">
-        <v>35.95327023724846</v>
+        <v>32.25369315336705</v>
       </c>
       <c r="G12">
-        <v>41.42652804679154</v>
+        <v>45.73428687791027</v>
       </c>
       <c r="H12">
-        <v>16.74835687964431</v>
+        <v>12.40035080882806</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.0249817593088</v>
+        <v>4.885577036693789</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.289895067015674</v>
+        <v>5.038513803471307</v>
       </c>
       <c r="M12">
-        <v>28.13627482650153</v>
+        <v>36.49078054772155</v>
       </c>
       <c r="N12">
-        <v>19.00708982982884</v>
+        <v>23.53687134452874</v>
       </c>
       <c r="O12">
-        <v>27.38636786328725</v>
+        <v>24.07070055063151</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>12.70654260420564</v>
+        <v>9.030119213310883</v>
       </c>
       <c r="D13">
-        <v>8.464325149840315</v>
+        <v>4.5837268305243</v>
       </c>
       <c r="E13">
-        <v>13.12369453418365</v>
+        <v>6.348147112027084</v>
       </c>
       <c r="F13">
-        <v>35.94568367939696</v>
+        <v>32.1842665342588</v>
       </c>
       <c r="G13">
-        <v>41.40427913463125</v>
+        <v>45.61714532158726</v>
       </c>
       <c r="H13">
-        <v>16.74777272459625</v>
+        <v>12.38108971346676</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.02695580482976</v>
+        <v>4.891652970967664</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.290979948439846</v>
+        <v>5.041635006273324</v>
       </c>
       <c r="M13">
-        <v>28.09947219282765</v>
+        <v>36.39512228771735</v>
       </c>
       <c r="N13">
-        <v>18.98892042302869</v>
+        <v>23.48927865165928</v>
       </c>
       <c r="O13">
-        <v>27.38103493720948</v>
+        <v>24.0202481416298</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>12.70820956639012</v>
+        <v>8.98820902875195</v>
       </c>
       <c r="D14">
-        <v>8.46829845693585</v>
+        <v>4.588015658444312</v>
       </c>
       <c r="E14">
-        <v>13.13387146483732</v>
+        <v>6.373282743649436</v>
       </c>
       <c r="F14">
-        <v>35.92116956363304</v>
+        <v>31.95779768036264</v>
       </c>
       <c r="G14">
-        <v>41.33195598358319</v>
+        <v>45.23442672226237</v>
       </c>
       <c r="H14">
-        <v>16.74595433947927</v>
+        <v>12.31840679500262</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.03342091063588</v>
+        <v>4.911506520219096</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.294533754126833</v>
+        <v>5.051834040427644</v>
       </c>
       <c r="M14">
-        <v>27.97909997314784</v>
+        <v>36.09163302841606</v>
       </c>
       <c r="N14">
-        <v>18.92958163897295</v>
+        <v>23.33348416889172</v>
       </c>
       <c r="O14">
-        <v>27.36380862251241</v>
+        <v>23.85569183222568</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>12.70928877626073</v>
+        <v>8.962670971970397</v>
       </c>
       <c r="D15">
-        <v>8.470751496919217</v>
+        <v>4.590699511793176</v>
       </c>
       <c r="E15">
-        <v>13.14014178911643</v>
+        <v>6.388776307925608</v>
       </c>
       <c r="F15">
-        <v>35.90632895656087</v>
+        <v>31.81903945357829</v>
       </c>
       <c r="G15">
-        <v>41.28783838154828</v>
+        <v>44.99946755623872</v>
       </c>
       <c r="H15">
-        <v>16.74490714704722</v>
+        <v>12.2801131458224</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.03740197468259</v>
+        <v>4.923697147981581</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.296722689190496</v>
+        <v>5.058096809225285</v>
       </c>
       <c r="M15">
-        <v>27.90510122851232</v>
+        <v>35.90828183143675</v>
       </c>
       <c r="N15">
-        <v>18.89317137229921</v>
+        <v>23.23760833856553</v>
       </c>
       <c r="O15">
-        <v>27.35338442108755</v>
+        <v>23.75488210364497</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>12.71636375080429</v>
+        <v>8.81836377770229</v>
       </c>
       <c r="D16">
-        <v>8.485104443467806</v>
+        <v>4.606933144630974</v>
       </c>
       <c r="E16">
-        <v>13.17663682858402</v>
+        <v>6.479017107960529</v>
       </c>
       <c r="F16">
-        <v>35.8239791542677</v>
+        <v>31.02334346886341</v>
       </c>
       <c r="G16">
-        <v>41.03787725083129</v>
+        <v>43.64488775545018</v>
       </c>
       <c r="H16">
-        <v>16.73992802846767</v>
+        <v>12.06223443097592</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.06053818289589</v>
+        <v>4.994016575546838</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.309452759063683</v>
+        <v>5.094229258786284</v>
       </c>
       <c r="M16">
-        <v>27.47704488073961</v>
+        <v>34.83911051255976</v>
       </c>
       <c r="N16">
-        <v>18.68359946037656</v>
+        <v>22.68140783826653</v>
       </c>
       <c r="O16">
-        <v>27.29560958204465</v>
+        <v>23.17701854791894</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>12.72149767602038</v>
+        <v>8.731658151373763</v>
       </c>
       <c r="D17">
-        <v>8.494173402010782</v>
+        <v>4.617635151488743</v>
       </c>
       <c r="E17">
-        <v>13.19952763091952</v>
+        <v>6.535635588049042</v>
       </c>
       <c r="F17">
-        <v>35.7758797289674</v>
+        <v>30.53483518133994</v>
       </c>
       <c r="G17">
-        <v>40.88715307282288</v>
+        <v>42.80672077776579</v>
       </c>
       <c r="H17">
-        <v>16.73778614335898</v>
+        <v>11.92998586156293</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.07501963505267</v>
+        <v>5.037569898585263</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.31742869507878</v>
+        <v>5.116616971558297</v>
       </c>
       <c r="M17">
-        <v>27.21098656064389</v>
+        <v>34.16673192526227</v>
       </c>
       <c r="N17">
-        <v>18.55427392101352</v>
+        <v>22.33424456691802</v>
       </c>
       <c r="O17">
-        <v>27.26192688621381</v>
+        <v>22.82244069067604</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>12.72474185078616</v>
+        <v>8.682457469717381</v>
       </c>
       <c r="D18">
-        <v>8.499486666878665</v>
+        <v>4.624056656297123</v>
       </c>
       <c r="E18">
-        <v>13.21287859540882</v>
+        <v>6.56864934337795</v>
       </c>
       <c r="F18">
-        <v>35.74910869995094</v>
+        <v>30.25376456027158</v>
       </c>
       <c r="G18">
-        <v>40.80144941702569</v>
+        <v>42.32203102357165</v>
       </c>
       <c r="H18">
-        <v>16.73688984188563</v>
+        <v>11.85444599523183</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.08345507522824</v>
+        <v>5.062774748092909</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.322077543415928</v>
+        <v>5.129577072590493</v>
       </c>
       <c r="M18">
-        <v>27.05673017124096</v>
+        <v>33.7739428296297</v>
       </c>
       <c r="N18">
-        <v>18.47963439202577</v>
+        <v>22.13241769028053</v>
       </c>
       <c r="O18">
-        <v>27.24320399794593</v>
+        <v>22.61849971818872</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>12.72589026024938</v>
+        <v>8.665914104007717</v>
       </c>
       <c r="D19">
-        <v>8.501302319575952</v>
+        <v>4.62627589242756</v>
       </c>
       <c r="E19">
-        <v>13.21743075754263</v>
+        <v>6.579902958868493</v>
       </c>
       <c r="F19">
-        <v>35.74019860002127</v>
+        <v>30.15858749938485</v>
       </c>
       <c r="G19">
-        <v>40.77260395062978</v>
+        <v>42.1574817909469</v>
       </c>
       <c r="H19">
-        <v>16.73664403935921</v>
+        <v>11.82896054825928</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.08632941099161</v>
+        <v>5.071335320035238</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.323662104531452</v>
+        <v>5.13397961345435</v>
       </c>
       <c r="M19">
-        <v>27.0042953014449</v>
+        <v>33.6399115429746</v>
       </c>
       <c r="N19">
-        <v>18.45432130233248</v>
+        <v>22.06371773754062</v>
       </c>
       <c r="O19">
-        <v>27.23697680058892</v>
+        <v>22.54945262072706</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>12.72092100564586</v>
+        <v>8.740818771989197</v>
       </c>
       <c r="D20">
-        <v>8.493197954023399</v>
+        <v>4.616468217426576</v>
       </c>
       <c r="E20">
-        <v>13.19707174628073</v>
+        <v>6.529561749420089</v>
       </c>
       <c r="F20">
-        <v>35.78090753458586</v>
+        <v>30.58684849081883</v>
       </c>
       <c r="G20">
-        <v>40.90309616134706</v>
+        <v>42.89621503889227</v>
       </c>
       <c r="H20">
-        <v>16.73797941688978</v>
+        <v>11.9440096719989</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.07346708419811</v>
+        <v>5.032917661513066</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.316573301613353</v>
+        <v>5.114225182693088</v>
       </c>
       <c r="M20">
-        <v>27.23943691159885</v>
+        <v>34.23893446006971</v>
       </c>
       <c r="N20">
-        <v>18.56806778315498</v>
+        <v>22.37142391534419</v>
       </c>
       <c r="O20">
-        <v>27.26544521997883</v>
+        <v>22.86018658355257</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>12.70770781953511</v>
+        <v>9.000491319496669</v>
       </c>
       <c r="D21">
-        <v>8.467127383833557</v>
+        <v>4.586744041763307</v>
       </c>
       <c r="E21">
-        <v>13.13087461466509</v>
+        <v>6.36587943695021</v>
       </c>
       <c r="F21">
-        <v>35.9283335175922</v>
+        <v>32.02432547350606</v>
       </c>
       <c r="G21">
-        <v>41.35316118279938</v>
+        <v>45.34695160046079</v>
       </c>
       <c r="H21">
-        <v>16.74647456156463</v>
+        <v>12.33679717107181</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.03151757706037</v>
+        <v>4.905668859385217</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.293487388827932</v>
+        <v>5.048835103819791</v>
       </c>
       <c r="M21">
-        <v>28.01451214220273</v>
+        <v>36.17922850182143</v>
       </c>
       <c r="N21">
-        <v>18.94702425097901</v>
+        <v>23.3793381657971</v>
       </c>
       <c r="O21">
-        <v>27.36884187820995</v>
+        <v>23.90402909384</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>12.70167377301273</v>
+        <v>9.176162748726194</v>
       </c>
       <c r="D22">
-        <v>8.450951609659493</v>
+        <v>4.569841353691259</v>
       </c>
       <c r="E22">
-        <v>13.0892523160745</v>
+        <v>6.26321727571098</v>
       </c>
       <c r="F22">
-        <v>36.03253211943976</v>
+        <v>32.96214090151076</v>
       </c>
       <c r="G22">
-        <v>41.65554117716869</v>
+        <v>46.92488262279086</v>
       </c>
       <c r="H22">
-        <v>16.75500919919954</v>
+        <v>12.59806420259097</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.00504160516801</v>
+        <v>4.82384085947818</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.278942513849051</v>
+        <v>5.006800601171092</v>
       </c>
       <c r="M22">
-        <v>28.50922346367613</v>
+        <v>37.45374840809737</v>
       </c>
       <c r="N22">
-        <v>19.1919148809861</v>
+        <v>24.01815404910463</v>
       </c>
       <c r="O22">
-        <v>27.44213030097741</v>
+        <v>24.58568105302333</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>12.70465588529902</v>
+        <v>9.081858226094313</v>
       </c>
       <c r="D23">
-        <v>8.459506034501061</v>
+        <v>4.578623892329744</v>
       </c>
       <c r="E23">
-        <v>13.11131693029172</v>
+        <v>6.317598123835473</v>
       </c>
       <c r="F23">
-        <v>35.9762074660286</v>
+        <v>32.46179373116866</v>
       </c>
       <c r="G23">
-        <v>41.49342977150006</v>
+        <v>46.08490024671873</v>
       </c>
       <c r="H23">
-        <v>16.75018157606611</v>
+        <v>12.45820867425263</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.01908648367447</v>
+        <v>4.867393355187426</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.286655827010502</v>
+        <v>5.029173013287791</v>
       </c>
       <c r="M23">
-        <v>28.24631286634881</v>
+        <v>36.77610109692219</v>
       </c>
       <c r="N23">
-        <v>19.06149040431164</v>
+        <v>23.67906198936991</v>
       </c>
       <c r="O23">
-        <v>27.40249632164651</v>
+        <v>24.22194352106803</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>12.72118080695631</v>
+        <v>8.736675238354836</v>
       </c>
       <c r="D24">
-        <v>8.493638644427044</v>
+        <v>4.616994952811347</v>
       </c>
       <c r="E24">
-        <v>13.19818145753023</v>
+        <v>6.532306292964063</v>
       </c>
       <c r="F24">
-        <v>35.77863171502661</v>
+        <v>30.56333395063633</v>
       </c>
       <c r="G24">
-        <v>40.89588532646371</v>
+        <v>42.85576344672594</v>
       </c>
       <c r="H24">
-        <v>16.73789099399726</v>
+        <v>11.93766797448276</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.0741686501676</v>
+        <v>5.035020422096618</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.316959827544686</v>
+        <v>5.11530623245951</v>
       </c>
       <c r="M24">
-        <v>27.22657853382017</v>
+        <v>34.20631109809831</v>
       </c>
       <c r="N24">
-        <v>18.56183247108967</v>
+        <v>22.35462209372013</v>
       </c>
       <c r="O24">
-        <v>27.2638525813622</v>
+        <v>22.84312193659794</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>12.75013484831817</v>
+        <v>8.389963477178489</v>
       </c>
       <c r="D25">
-        <v>8.534167098857372</v>
+        <v>4.668475685830488</v>
       </c>
       <c r="E25">
-        <v>13.29894628550205</v>
+        <v>6.780920690980243</v>
       </c>
       <c r="F25">
-        <v>35.59976038902224</v>
+        <v>28.51287971609738</v>
       </c>
       <c r="G25">
-        <v>40.28944648992082</v>
+        <v>39.27446797170619</v>
       </c>
       <c r="H25">
-        <v>16.7374664331337</v>
+        <v>11.39642123459525</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.13764254632204</v>
+        <v>5.221751821700893</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.351993010428934</v>
+        <v>5.211419302280507</v>
       </c>
       <c r="M25">
-        <v>26.0803920586682</v>
+        <v>31.2308694625986</v>
       </c>
       <c r="N25">
-        <v>18.01345874597482</v>
+        <v>20.84458859122386</v>
       </c>
       <c r="O25">
-        <v>27.13920544786342</v>
+        <v>21.35659809789972</v>
       </c>
     </row>
   </sheetData>
